--- a/public/tfgfinal.xlsx
+++ b/public/tfgfinal.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="226">
   <si>
     <t>M2</t>
   </si>
@@ -696,6 +696,18 @@
   </si>
   <si>
     <t>Harvard University</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>IsraelX</t>
+  </si>
+  <si>
+    <t>The Imperial College of Science, Technology and Medicine</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -808,7 +820,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -832,6 +844,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1168,12 +1182,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:P149" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:P149"/>
-  <sortState ref="A2:P149">
-    <sortCondition descending="1" ref="O1:O149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:Q188" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:Q188"/>
+  <sortState ref="A150:Q188">
+    <sortCondition ref="Q1:Q188"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" name="universityName"/>
     <tableColumn id="2" name="country"/>
     <tableColumn id="8" name="countryCode"/>
@@ -1188,7 +1202,7 @@
     <tableColumn id="6" name="courseraMOOCS"/>
     <tableColumn id="7" name="edXMOOCS"/>
     <tableColumn id="13" name="totalMOOCS" dataDxfId="6">
-      <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="M2" dataDxfId="5">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</calculatedColumnFormula>
@@ -1202,6 +1216,7 @@
       <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="ranking10" dataDxfId="0"/>
+    <tableColumn id="17" name="year"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1470,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P149"/>
+  <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S139" sqref="S139"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,7 +1498,7 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="77" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1532,8 +1547,11 @@
       <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -1550,7 +1568,7 @@
         <v>3319</v>
       </c>
       <c r="F2">
-        <f>IF(E2&lt;=5000,1,IF(E2&lt;=15000,2,IF(E2&lt;=25000,3,IF(E2&lt;=35000,4,5))))</f>
+        <f t="shared" ref="F2:F33" si="0">IF(E2&lt;=5000,1,IF(E2&lt;=15000,2,IF(E2&lt;=25000,3,IF(E2&lt;=35000,4,5))))</f>
         <v>1</v>
       </c>
       <c r="G2">
@@ -1560,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>39</v>
       </c>
       <c r="K2" s="7">
@@ -1584,8 +1602,11 @@
       <c r="P2" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -1602,7 +1623,7 @@
         <v>33000</v>
       </c>
       <c r="F3">
-        <f>IF(E3&lt;=5000,1,IF(E3&lt;=15000,2,IF(E3&lt;=25000,3,IF(E3&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G3">
@@ -1612,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="J3" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>83</v>
       </c>
       <c r="K3" s="7">
@@ -1636,8 +1657,11 @@
       <c r="P3" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1679,7 @@
         <v>19613</v>
       </c>
       <c r="F4">
-        <f>IF(E4&lt;=5000,1,IF(E4&lt;=15000,2,IF(E4&lt;=25000,3,IF(E4&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G4">
@@ -1665,7 +1689,7 @@
         <v>51</v>
       </c>
       <c r="J4">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>51</v>
       </c>
       <c r="K4" s="4">
@@ -1689,8 +1713,11 @@
       <c r="P4" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -1707,7 +1734,7 @@
         <v>32400</v>
       </c>
       <c r="F5">
-        <f>IF(E5&lt;=5000,1,IF(E5&lt;=15000,2,IF(E5&lt;=25000,3,IF(E5&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G5">
@@ -1717,7 +1744,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>36</v>
       </c>
       <c r="K5" s="7">
@@ -1741,8 +1768,11 @@
       <c r="P5" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -1759,14 +1789,14 @@
         <v>31000</v>
       </c>
       <c r="F6">
-        <f>IF(E6&lt;=5000,1,IF(E6&lt;=15000,2,IF(E6&lt;=25000,3,IF(E6&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H6" s="8">
         <v>59</v>
       </c>
       <c r="J6" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>59</v>
       </c>
       <c r="K6" s="7">
@@ -1790,8 +1820,11 @@
       <c r="P6" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>221</v>
       </c>
@@ -1808,7 +1841,7 @@
         <v>22000</v>
       </c>
       <c r="F7" s="13">
-        <f>IF(E7&lt;=5000,1,IF(E7&lt;=15000,2,IF(E7&lt;=25000,3,IF(E7&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G7" s="13">
@@ -1821,7 +1854,7 @@
         <v>57</v>
       </c>
       <c r="J7" s="17">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>57</v>
       </c>
       <c r="K7" s="18">
@@ -1845,8 +1878,11 @@
       <c r="P7" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1863,7 +1899,7 @@
         <v>10019</v>
       </c>
       <c r="F8">
-        <f>IF(E8&lt;=5000,1,IF(E8&lt;=15000,2,IF(E8&lt;=25000,3,IF(E8&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G8">
@@ -1873,7 +1909,7 @@
         <v>54</v>
       </c>
       <c r="J8" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>54</v>
       </c>
       <c r="K8" s="7">
@@ -1897,8 +1933,11 @@
       <c r="P8" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1915,7 +1954,7 @@
         <v>32168</v>
       </c>
       <c r="F9">
-        <f>IF(E9&lt;=5000,1,IF(E9&lt;=15000,2,IF(E9&lt;=25000,3,IF(E9&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G9">
@@ -1925,7 +1964,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>41</v>
       </c>
       <c r="K9" s="7">
@@ -1949,8 +1988,11 @@
       <c r="P9" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -1967,7 +2009,7 @@
         <v>30248</v>
       </c>
       <c r="F10">
-        <f>IF(E10&lt;=5000,1,IF(E10&lt;=15000,2,IF(E10&lt;=25000,3,IF(E10&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G10">
@@ -1977,7 +2019,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>45</v>
       </c>
       <c r="K10" s="7">
@@ -2001,8 +2043,11 @@
       <c r="P10" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -2019,7 +2064,7 @@
         <v>44087</v>
       </c>
       <c r="F11">
-        <f>IF(E11&lt;=5000,1,IF(E11&lt;=15000,2,IF(E11&lt;=25000,3,IF(E11&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G11">
@@ -2029,7 +2074,7 @@
         <v>47</v>
       </c>
       <c r="J11" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>47</v>
       </c>
       <c r="K11" s="7">
@@ -2053,8 +2098,11 @@
       <c r="P11" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2071,7 +2119,7 @@
         <v>324413</v>
       </c>
       <c r="F12">
-        <f>IF(E12&lt;=5000,1,IF(E12&lt;=15000,2,IF(E12&lt;=25000,3,IF(E12&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G12">
@@ -2081,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>33</v>
       </c>
       <c r="K12" s="7">
@@ -2105,8 +2153,11 @@
       <c r="P12" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2124,7 +2175,7 @@
         <v>18676</v>
       </c>
       <c r="F13">
-        <f>IF(E13&lt;=5000,1,IF(E13&lt;=15000,2,IF(E13&lt;=25000,3,IF(E13&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13">
@@ -2134,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>17</v>
       </c>
       <c r="K13" s="4">
@@ -2158,8 +2209,11 @@
       <c r="P13" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2176,14 +2230,14 @@
         <v>14832</v>
       </c>
       <c r="F14">
-        <f>IF(E14&lt;=5000,1,IF(E14&lt;=15000,2,IF(E14&lt;=25000,3,IF(E14&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14">
         <v>44</v>
       </c>
       <c r="J14" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>44</v>
       </c>
       <c r="K14" s="7">
@@ -2207,8 +2261,11 @@
       <c r="P14" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -2225,7 +2282,7 @@
         <v>37166</v>
       </c>
       <c r="F15">
-        <f>IF(E15&lt;=5000,1,IF(E15&lt;=15000,2,IF(E15&lt;=25000,3,IF(E15&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G15">
@@ -2235,7 +2292,7 @@
         <v>24</v>
       </c>
       <c r="J15" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>24</v>
       </c>
       <c r="K15" s="7">
@@ -2259,8 +2316,11 @@
       <c r="P15" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2277,7 +2337,7 @@
         <v>13000</v>
       </c>
       <c r="F16">
-        <f>IF(E16&lt;=5000,1,IF(E16&lt;=15000,2,IF(E16&lt;=25000,3,IF(E16&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16">
@@ -2287,7 +2347,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>16</v>
       </c>
       <c r="K16" s="7">
@@ -2311,8 +2371,11 @@
       <c r="P16" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2331,7 +2394,7 @@
         <v>10124</v>
       </c>
       <c r="F17">
-        <f>IF(E17&lt;=5000,1,IF(E17&lt;=15000,2,IF(E17&lt;=25000,3,IF(E17&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G17">
@@ -2344,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="J17">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>33</v>
       </c>
       <c r="K17" s="4">
@@ -2368,8 +2431,11 @@
       <c r="P17" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -2386,7 +2452,7 @@
         <v>24360</v>
       </c>
       <c r="F18">
-        <f>IF(E18&lt;=5000,1,IF(E18&lt;=15000,2,IF(E18&lt;=25000,3,IF(E18&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G18">
@@ -2396,7 +2462,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>29</v>
       </c>
       <c r="K18" s="7">
@@ -2420,8 +2486,11 @@
       <c r="P18" s="15">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -2438,7 +2507,7 @@
         <v>20174</v>
       </c>
       <c r="F19">
-        <f>IF(E19&lt;=5000,1,IF(E19&lt;=15000,2,IF(E19&lt;=25000,3,IF(E19&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G19">
@@ -2448,7 +2517,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>37</v>
       </c>
       <c r="K19" s="7">
@@ -2472,8 +2541,11 @@
       <c r="P19" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -2490,7 +2562,7 @@
         <v>15489</v>
       </c>
       <c r="F20">
-        <f>IF(E20&lt;=5000,1,IF(E20&lt;=15000,2,IF(E20&lt;=25000,3,IF(E20&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G20">
@@ -2500,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="J20" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>32</v>
       </c>
       <c r="K20" s="7">
@@ -2524,8 +2596,11 @@
       <c r="P20" s="14">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -2542,7 +2617,7 @@
         <v>29703</v>
       </c>
       <c r="F21">
-        <f>IF(E21&lt;=5000,1,IF(E21&lt;=15000,2,IF(E21&lt;=25000,3,IF(E21&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G21">
@@ -2552,7 +2627,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>17</v>
       </c>
       <c r="K21" s="7">
@@ -2576,8 +2651,11 @@
       <c r="P21" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -2594,14 +2672,14 @@
         <v>10536</v>
       </c>
       <c r="F22">
-        <f>IF(E22&lt;=5000,1,IF(E22&lt;=15000,2,IF(E22&lt;=25000,3,IF(E22&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H22">
         <v>37</v>
       </c>
       <c r="J22" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>37</v>
       </c>
       <c r="K22" s="7">
@@ -2625,8 +2703,11 @@
       <c r="P22" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2643,7 +2724,7 @@
         <v>44718</v>
       </c>
       <c r="F23">
-        <f>IF(E23&lt;=5000,1,IF(E23&lt;=15000,2,IF(E23&lt;=25000,3,IF(E23&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G23">
@@ -2653,7 +2734,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>35</v>
       </c>
       <c r="K23" s="7">
@@ -2677,8 +2758,11 @@
       <c r="P23" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2696,7 +2780,7 @@
         <v>29711</v>
       </c>
       <c r="F24">
-        <f>IF(E24&lt;=5000,1,IF(E24&lt;=15000,2,IF(E24&lt;=25000,3,IF(E24&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G24">
@@ -2706,7 +2790,7 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>24</v>
       </c>
       <c r="K24" s="4">
@@ -2730,8 +2814,11 @@
       <c r="P24" s="15">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -2748,7 +2835,7 @@
         <v>14208</v>
       </c>
       <c r="F25">
-        <f>IF(E25&lt;=5000,1,IF(E25&lt;=15000,2,IF(E25&lt;=25000,3,IF(E25&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G25">
@@ -2758,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="J25" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>21</v>
       </c>
       <c r="K25" s="7">
@@ -2782,8 +2869,11 @@
       <c r="P25" s="14">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -2800,7 +2890,7 @@
         <v>40494</v>
       </c>
       <c r="F26">
-        <f>IF(E26&lt;=5000,1,IF(E26&lt;=15000,2,IF(E26&lt;=25000,3,IF(E26&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G26">
@@ -2810,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>17</v>
       </c>
       <c r="K26" s="7">
@@ -2834,8 +2924,11 @@
       <c r="P26" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2853,7 +2946,7 @@
         <v>35582</v>
       </c>
       <c r="F27">
-        <f>IF(E27&lt;=5000,1,IF(E27&lt;=15000,2,IF(E27&lt;=25000,3,IF(E27&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G27">
@@ -2866,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>28</v>
       </c>
       <c r="K27" s="4">
@@ -2890,8 +2983,11 @@
       <c r="P27" s="15">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +3005,7 @@
         <v>24270</v>
       </c>
       <c r="F28">
-        <f>IF(E28&lt;=5000,1,IF(E28&lt;=15000,2,IF(E28&lt;=25000,3,IF(E28&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28">
@@ -2919,7 +3015,7 @@
         <v>25</v>
       </c>
       <c r="J28">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>25</v>
       </c>
       <c r="K28" s="4">
@@ -2943,8 +3039,11 @@
       <c r="P28" s="14">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2962,7 +3061,7 @@
         <v>14489</v>
       </c>
       <c r="F29">
-        <f>IF(E29&lt;=5000,1,IF(E29&lt;=15000,2,IF(E29&lt;=25000,3,IF(E29&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G29">
@@ -2972,7 +3071,7 @@
         <v>27</v>
       </c>
       <c r="J29">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>27</v>
       </c>
       <c r="K29" s="4">
@@ -2996,8 +3095,11 @@
       <c r="P29" s="14">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3015,7 +3117,7 @@
         <v>4000</v>
       </c>
       <c r="F30">
-        <f>IF(E30&lt;=5000,1,IF(E30&lt;=15000,2,IF(E30&lt;=25000,3,IF(E30&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G30">
@@ -3025,7 +3127,7 @@
         <v>11</v>
       </c>
       <c r="J30">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>11</v>
       </c>
       <c r="K30" s="4">
@@ -3049,8 +3151,11 @@
       <c r="P30" s="15">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -3067,7 +3172,7 @@
         <v>29850</v>
       </c>
       <c r="F31">
-        <f>IF(E31&lt;=5000,1,IF(E31&lt;=15000,2,IF(E31&lt;=25000,3,IF(E31&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G31">
@@ -3077,7 +3182,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>19</v>
       </c>
       <c r="K31" s="7">
@@ -3101,8 +3206,11 @@
       <c r="P31" s="14">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3120,7 +3228,7 @@
         <v>161270</v>
       </c>
       <c r="F32">
-        <f>IF(E32&lt;=5000,1,IF(E32&lt;=15000,2,IF(E32&lt;=25000,3,IF(E32&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G32">
@@ -3130,7 +3238,7 @@
         <v>25</v>
       </c>
       <c r="J32">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>25</v>
       </c>
       <c r="K32" s="4">
@@ -3154,8 +3262,11 @@
       <c r="P32" s="14">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -3172,14 +3283,14 @@
         <v>16440</v>
       </c>
       <c r="F33">
-        <f>IF(E33&lt;=5000,1,IF(E33&lt;=15000,2,IF(E33&lt;=25000,3,IF(E33&lt;=35000,4,5))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H33" s="8">
         <v>25</v>
       </c>
       <c r="J33" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>25</v>
       </c>
       <c r="K33" s="7">
@@ -3203,8 +3314,11 @@
       <c r="P33" s="15">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3223,7 +3337,7 @@
         <v>2081</v>
       </c>
       <c r="F34">
-        <f>IF(E34&lt;=5000,1,IF(E34&lt;=15000,2,IF(E34&lt;=25000,3,IF(E34&lt;=35000,4,5))))</f>
+        <f t="shared" ref="F34:F65" si="1">IF(E34&lt;=5000,1,IF(E34&lt;=15000,2,IF(E34&lt;=25000,3,IF(E34&lt;=35000,4,5))))</f>
         <v>1</v>
       </c>
       <c r="G34">
@@ -3233,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="J34">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K34" s="4">
@@ -3257,8 +3371,11 @@
       <c r="P34" s="14">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -3275,7 +3392,7 @@
         <v>48088</v>
       </c>
       <c r="F35">
-        <f>IF(E35&lt;=5000,1,IF(E35&lt;=15000,2,IF(E35&lt;=25000,3,IF(E35&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G35">
@@ -3285,7 +3402,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>20</v>
       </c>
       <c r="K35" s="7">
@@ -3309,8 +3426,11 @@
       <c r="P35" s="14">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -3327,7 +3447,7 @@
         <v>38213</v>
       </c>
       <c r="F36">
-        <f>IF(E36&lt;=5000,1,IF(E36&lt;=15000,2,IF(E36&lt;=25000,3,IF(E36&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G36">
@@ -3337,7 +3457,7 @@
         <v>16</v>
       </c>
       <c r="J36" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>16</v>
       </c>
       <c r="K36" s="7">
@@ -3361,8 +3481,11 @@
       <c r="P36" s="15">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>216</v>
       </c>
@@ -3379,7 +3502,7 @@
         <v>217</v>
       </c>
       <c r="F37">
-        <f>IF(E37&lt;=5000,1,IF(E37&lt;=15000,2,IF(E37&lt;=25000,3,IF(E37&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G37">
@@ -3389,7 +3512,7 @@
         <v>17</v>
       </c>
       <c r="J37" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>17</v>
       </c>
       <c r="K37" s="7">
@@ -3413,8 +3536,11 @@
       <c r="P37" s="14">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -3431,7 +3557,7 @@
         <v>12223</v>
       </c>
       <c r="F38">
-        <f>IF(E38&lt;=5000,1,IF(E38&lt;=15000,2,IF(E38&lt;=25000,3,IF(E38&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G38">
@@ -3441,7 +3567,7 @@
         <v>22</v>
       </c>
       <c r="J38" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>22</v>
       </c>
       <c r="K38" s="7">
@@ -3465,8 +3591,11 @@
       <c r="P38" s="14">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -3483,7 +3612,7 @@
         <v>35434</v>
       </c>
       <c r="F39">
-        <f>IF(E39&lt;=5000,1,IF(E39&lt;=15000,2,IF(E39&lt;=25000,3,IF(E39&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G39">
@@ -3493,7 +3622,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>15</v>
       </c>
       <c r="K39" s="7">
@@ -3517,8 +3646,11 @@
       <c r="P39" s="15">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -3535,7 +3667,7 @@
         <v>7131</v>
       </c>
       <c r="F40">
-        <f>IF(E40&lt;=5000,1,IF(E40&lt;=15000,2,IF(E40&lt;=25000,3,IF(E40&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G40">
@@ -3545,7 +3677,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>10</v>
       </c>
       <c r="K40" s="7">
@@ -3569,8 +3701,11 @@
       <c r="P40" s="14">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -3587,7 +3722,7 @@
         <v>16336</v>
       </c>
       <c r="F41">
-        <f>IF(E41&lt;=5000,1,IF(E41&lt;=15000,2,IF(E41&lt;=25000,3,IF(E41&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G41">
@@ -3597,7 +3732,7 @@
         <v>22</v>
       </c>
       <c r="J41" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>22</v>
       </c>
       <c r="K41" s="7">
@@ -3621,8 +3756,11 @@
       <c r="P41" s="14">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -3639,14 +3777,14 @@
         <v>19980</v>
       </c>
       <c r="F42">
-        <f>IF(E42&lt;=5000,1,IF(E42&lt;=15000,2,IF(E42&lt;=25000,3,IF(E42&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H42" s="8">
         <v>22</v>
       </c>
       <c r="J42" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>22</v>
       </c>
       <c r="K42" s="7">
@@ -3670,8 +3808,11 @@
       <c r="P42" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -3688,7 +3829,7 @@
         <v>65371</v>
       </c>
       <c r="F43">
-        <f>IF(E43&lt;=5000,1,IF(E43&lt;=15000,2,IF(E43&lt;=25000,3,IF(E43&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G43">
@@ -3698,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>20</v>
       </c>
       <c r="K43" s="7">
@@ -3722,8 +3863,11 @@
       <c r="P43" s="14">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -3741,7 +3885,7 @@
         <v>22829</v>
       </c>
       <c r="F44">
-        <f>IF(E44&lt;=5000,1,IF(E44&lt;=15000,2,IF(E44&lt;=25000,3,IF(E44&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G44">
@@ -3751,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="J44">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K44" s="4">
@@ -3775,8 +3919,11 @@
       <c r="P44" s="14">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -3793,7 +3940,7 @@
         <v>20277</v>
       </c>
       <c r="F45">
-        <f>IF(E45&lt;=5000,1,IF(E45&lt;=15000,2,IF(E45&lt;=25000,3,IF(E45&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G45">
@@ -3803,7 +3950,7 @@
         <v>16</v>
       </c>
       <c r="J45" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>16</v>
       </c>
       <c r="K45" s="7">
@@ -3827,8 +3974,11 @@
       <c r="P45" s="15">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -3845,14 +3995,14 @@
         <v>5983</v>
       </c>
       <c r="F46">
-        <f>IF(E46&lt;=5000,1,IF(E46&lt;=15000,2,IF(E46&lt;=25000,3,IF(E46&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H46">
         <v>21</v>
       </c>
       <c r="J46" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>21</v>
       </c>
       <c r="K46" s="7">
@@ -3876,8 +4026,11 @@
       <c r="P46" s="14">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -3894,7 +4047,7 @@
         <v>33246</v>
       </c>
       <c r="F47">
-        <f>IF(E47&lt;=5000,1,IF(E47&lt;=15000,2,IF(E47&lt;=25000,3,IF(E47&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G47">
@@ -3904,7 +4057,7 @@
         <v>19</v>
       </c>
       <c r="J47" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>19</v>
       </c>
       <c r="K47" s="7">
@@ -3928,8 +4081,11 @@
       <c r="P47" s="14">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>218</v>
       </c>
@@ -3946,7 +4102,7 @@
         <v>35000</v>
       </c>
       <c r="F48">
-        <f>IF(E48&lt;=5000,1,IF(E48&lt;=15000,2,IF(E48&lt;=25000,3,IF(E48&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G48">
@@ -3956,7 +4112,7 @@
         <v>9</v>
       </c>
       <c r="J48" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K48" s="7">
@@ -3980,8 +4136,11 @@
       <c r="P48" s="15">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -3999,7 +4158,7 @@
         <v>50542</v>
       </c>
       <c r="F49">
-        <f>IF(E49&lt;=5000,1,IF(E49&lt;=15000,2,IF(E49&lt;=25000,3,IF(E49&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G49">
@@ -4009,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="J49">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K49" s="4">
@@ -4033,8 +4192,11 @@
       <c r="P49" s="14">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -4051,7 +4213,7 @@
         <v>25130</v>
       </c>
       <c r="F50">
-        <f>IF(E50&lt;=5000,1,IF(E50&lt;=15000,2,IF(E50&lt;=25000,3,IF(E50&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G50">
@@ -4061,7 +4223,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>14</v>
       </c>
       <c r="K50" s="7">
@@ -4085,8 +4247,11 @@
       <c r="P50" s="14">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -4103,14 +4268,14 @@
         <v>5200</v>
       </c>
       <c r="F51">
-        <f>IF(E51&lt;=5000,1,IF(E51&lt;=15000,2,IF(E51&lt;=25000,3,IF(E51&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H51">
         <v>18</v>
       </c>
       <c r="J51" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>18</v>
       </c>
       <c r="K51" s="7">
@@ -4134,8 +4299,11 @@
       <c r="P51" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -4152,7 +4320,7 @@
         <v>40882</v>
       </c>
       <c r="F52">
-        <f>IF(E52&lt;=5000,1,IF(E52&lt;=15000,2,IF(E52&lt;=25000,3,IF(E52&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G52">
@@ -4162,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="J52" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>16</v>
       </c>
       <c r="K52" s="7">
@@ -4186,8 +4354,11 @@
       <c r="P52" s="14">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -4204,7 +4375,7 @@
         <v>26610</v>
       </c>
       <c r="F53">
-        <f>IF(E53&lt;=5000,1,IF(E53&lt;=15000,2,IF(E53&lt;=25000,3,IF(E53&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G53">
@@ -4214,7 +4385,7 @@
         <v>9</v>
       </c>
       <c r="J53" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K53" s="7">
@@ -4238,8 +4409,11 @@
       <c r="P53" s="14">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -4257,7 +4431,7 @@
         <v>12179</v>
       </c>
       <c r="F54">
-        <f>IF(E54&lt;=5000,1,IF(E54&lt;=15000,2,IF(E54&lt;=25000,3,IF(E54&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G54">
@@ -4267,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="J54">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K54" s="4">
@@ -4291,8 +4465,11 @@
       <c r="P54" s="15">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -4309,14 +4486,14 @@
         <v>14077</v>
       </c>
       <c r="F55">
-        <f>IF(E55&lt;=5000,1,IF(E55&lt;=15000,2,IF(E55&lt;=25000,3,IF(E55&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H55">
         <v>16</v>
       </c>
       <c r="J55" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>16</v>
       </c>
       <c r="K55" s="7">
@@ -4340,8 +4517,11 @@
       <c r="P55" s="14">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -4358,7 +4538,7 @@
         <v>52270</v>
       </c>
       <c r="F56">
-        <f>IF(E56&lt;=5000,1,IF(E56&lt;=15000,2,IF(E56&lt;=25000,3,IF(E56&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G56">
@@ -4368,7 +4548,7 @@
         <v>13</v>
       </c>
       <c r="J56" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>13</v>
       </c>
       <c r="K56" s="7">
@@ -4392,8 +4572,11 @@
       <c r="P56" s="14">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -4410,7 +4593,7 @@
         <v>37606</v>
       </c>
       <c r="F57">
-        <f>IF(E57&lt;=5000,1,IF(E57&lt;=15000,2,IF(E57&lt;=25000,3,IF(E57&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G57">
@@ -4420,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="J57" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>10</v>
       </c>
       <c r="K57" s="7">
@@ -4444,8 +4627,11 @@
       <c r="P57" s="15">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -4462,7 +4648,7 @@
         <v>6386</v>
       </c>
       <c r="F58">
-        <f>IF(E58&lt;=5000,1,IF(E58&lt;=15000,2,IF(E58&lt;=25000,3,IF(E58&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G58">
@@ -4472,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="J58" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>12</v>
       </c>
       <c r="K58" s="7">
@@ -4496,8 +4682,11 @@
       <c r="P58" s="14">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -4514,7 +4703,7 @@
         <v>35421</v>
       </c>
       <c r="F59">
-        <f>IF(E59&lt;=5000,1,IF(E59&lt;=15000,2,IF(E59&lt;=25000,3,IF(E59&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G59">
@@ -4524,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="J59" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>12</v>
       </c>
       <c r="K59" s="7">
@@ -4548,8 +4737,11 @@
       <c r="P59" s="14">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -4566,7 +4758,7 @@
         <v>21208</v>
       </c>
       <c r="F60">
-        <f>IF(E60&lt;=5000,1,IF(E60&lt;=15000,2,IF(E60&lt;=25000,3,IF(E60&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G60">
@@ -4576,7 +4768,7 @@
         <v>14</v>
       </c>
       <c r="J60" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>14</v>
       </c>
       <c r="K60" s="7">
@@ -4600,8 +4792,11 @@
       <c r="P60" s="15">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -4618,7 +4813,7 @@
         <v>26278</v>
       </c>
       <c r="F61">
-        <f>IF(E61&lt;=5000,1,IF(E61&lt;=15000,2,IF(E61&lt;=25000,3,IF(E61&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G61">
@@ -4628,7 +4823,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K61" s="7">
@@ -4652,8 +4847,11 @@
       <c r="P61" s="14">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -4670,7 +4868,7 @@
         <v>8623</v>
       </c>
       <c r="F62">
-        <f>IF(E62&lt;=5000,1,IF(E62&lt;=15000,2,IF(E62&lt;=25000,3,IF(E62&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G62">
@@ -4680,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="J62" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>14</v>
       </c>
       <c r="K62" s="7">
@@ -4704,8 +4902,11 @@
       <c r="P62" s="14">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -4722,14 +4923,14 @@
         <v>16665</v>
       </c>
       <c r="F63">
-        <f>IF(E63&lt;=5000,1,IF(E63&lt;=15000,2,IF(E63&lt;=25000,3,IF(E63&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H63">
         <v>14</v>
       </c>
       <c r="J63" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>14</v>
       </c>
       <c r="K63" s="7">
@@ -4753,8 +4954,11 @@
       <c r="P63" s="15">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -4771,7 +4975,7 @@
         <v>34871</v>
       </c>
       <c r="F64">
-        <f>IF(E64&lt;=5000,1,IF(E64&lt;=15000,2,IF(E64&lt;=25000,3,IF(E64&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G64">
@@ -4781,7 +4985,7 @@
         <v>13</v>
       </c>
       <c r="J64" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>13</v>
       </c>
       <c r="K64" s="7">
@@ -4805,8 +5009,11 @@
       <c r="P64" s="14">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>194</v>
       </c>
@@ -4823,7 +5030,7 @@
         <v>29847</v>
       </c>
       <c r="F65">
-        <f>IF(E65&lt;=5000,1,IF(E65&lt;=15000,2,IF(E65&lt;=25000,3,IF(E65&lt;=35000,4,5))))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G65">
@@ -4833,7 +5040,7 @@
         <v>13</v>
       </c>
       <c r="J65" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>13</v>
       </c>
       <c r="K65" s="7">
@@ -4857,8 +5064,11 @@
       <c r="P65" s="14">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -4875,7 +5085,7 @@
         <v>28047</v>
       </c>
       <c r="F66">
-        <f>IF(E66&lt;=5000,1,IF(E66&lt;=15000,2,IF(E66&lt;=25000,3,IF(E66&lt;=35000,4,5))))</f>
+        <f t="shared" ref="F66:F97" si="2">IF(E66&lt;=5000,1,IF(E66&lt;=15000,2,IF(E66&lt;=25000,3,IF(E66&lt;=35000,4,5))))</f>
         <v>4</v>
       </c>
       <c r="G66">
@@ -4885,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="J66" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>12</v>
       </c>
       <c r="K66" s="7">
@@ -4909,8 +5119,11 @@
       <c r="P66" s="15">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -4928,7 +5141,7 @@
         <v>57800</v>
       </c>
       <c r="F67">
-        <f>IF(E67&lt;=5000,1,IF(E67&lt;=15000,2,IF(E67&lt;=25000,3,IF(E67&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G67">
@@ -4938,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="J67">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K67" s="4">
@@ -4962,8 +5175,11 @@
       <c r="P67" s="14">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -4981,7 +5197,7 @@
         <v>11190</v>
       </c>
       <c r="F68">
-        <f>IF(E68&lt;=5000,1,IF(E68&lt;=15000,2,IF(E68&lt;=25000,3,IF(E68&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G68">
@@ -4991,7 +5207,7 @@
         <v>10</v>
       </c>
       <c r="J68">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>10</v>
       </c>
       <c r="K68" s="4">
@@ -5015,8 +5231,11 @@
       <c r="P68" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -5033,7 +5252,7 @@
         <v>61033</v>
       </c>
       <c r="F69">
-        <f>IF(E69&lt;=5000,1,IF(E69&lt;=15000,2,IF(E69&lt;=25000,3,IF(E69&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G69">
@@ -5043,7 +5262,7 @@
         <v>11</v>
       </c>
       <c r="J69" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>11</v>
       </c>
       <c r="K69" s="7">
@@ -5067,8 +5286,11 @@
       <c r="P69" s="15">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -5085,7 +5307,7 @@
         <v>90644</v>
       </c>
       <c r="F70">
-        <f>IF(E70&lt;=5000,1,IF(E70&lt;=15000,2,IF(E70&lt;=25000,3,IF(E70&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G70">
@@ -5095,7 +5317,7 @@
         <v>9</v>
       </c>
       <c r="J70" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K70" s="7">
@@ -5119,8 +5341,11 @@
       <c r="P70" s="14">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -5137,7 +5362,7 @@
         <v>40521</v>
       </c>
       <c r="F71">
-        <f>IF(E71&lt;=5000,1,IF(E71&lt;=15000,2,IF(E71&lt;=25000,3,IF(E71&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G71">
@@ -5147,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="J71" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>12</v>
       </c>
       <c r="K71" s="7">
@@ -5171,8 +5396,11 @@
       <c r="P71" s="14">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -5189,14 +5417,14 @@
         <v>547</v>
       </c>
       <c r="F72">
-        <f>IF(E72&lt;=5000,1,IF(E72&lt;=15000,2,IF(E72&lt;=25000,3,IF(E72&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H72">
         <v>13</v>
       </c>
       <c r="J72" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>13</v>
       </c>
       <c r="K72" s="7">
@@ -5220,8 +5448,11 @@
       <c r="P72" s="15">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -5238,14 +5469,14 @@
         <v>3893</v>
       </c>
       <c r="F73">
-        <f>IF(E73&lt;=5000,1,IF(E73&lt;=15000,2,IF(E73&lt;=25000,3,IF(E73&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H73">
         <v>13</v>
       </c>
       <c r="J73" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>13</v>
       </c>
       <c r="K73" s="7">
@@ -5269,8 +5500,11 @@
       <c r="P73" s="14">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -5287,14 +5521,14 @@
         <v>3213</v>
       </c>
       <c r="F74">
-        <f>IF(E74&lt;=5000,1,IF(E74&lt;=15000,2,IF(E74&lt;=25000,3,IF(E74&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H74">
         <v>12</v>
       </c>
       <c r="J74" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>12</v>
       </c>
       <c r="K74" s="7">
@@ -5318,8 +5552,11 @@
       <c r="P74" s="14">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -5336,14 +5573,14 @@
         <v>100000</v>
       </c>
       <c r="F75">
-        <f>IF(E75&lt;=5000,1,IF(E75&lt;=15000,2,IF(E75&lt;=25000,3,IF(E75&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H75">
         <v>12</v>
       </c>
       <c r="J75" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>12</v>
       </c>
       <c r="K75" s="7">
@@ -5367,8 +5604,11 @@
       <c r="P75" s="15">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5386,7 +5626,7 @@
         <v>11000</v>
       </c>
       <c r="F76">
-        <f>IF(E76&lt;=5000,1,IF(E76&lt;=15000,2,IF(E76&lt;=25000,3,IF(E76&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G76">
@@ -5396,7 +5636,7 @@
         <v>8</v>
       </c>
       <c r="J76">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K76" s="4">
@@ -5420,8 +5660,11 @@
       <c r="P76" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -5440,7 +5683,7 @@
         <v>36118</v>
       </c>
       <c r="F77">
-        <f>IF(E77&lt;=5000,1,IF(E77&lt;=15000,2,IF(E77&lt;=25000,3,IF(E77&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G77">
@@ -5450,7 +5693,7 @@
         <v>8</v>
       </c>
       <c r="J77">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K77" s="4">
@@ -5474,8 +5717,11 @@
       <c r="P77" s="14">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -5492,7 +5738,7 @@
         <v>60595</v>
       </c>
       <c r="F78">
-        <f>IF(E78&lt;=5000,1,IF(E78&lt;=15000,2,IF(E78&lt;=25000,3,IF(E78&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G78">
@@ -5502,7 +5748,7 @@
         <v>11</v>
       </c>
       <c r="J78" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>11</v>
       </c>
       <c r="K78" s="7">
@@ -5526,8 +5772,11 @@
       <c r="P78" s="15">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -5542,7 +5791,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <f>IF(E79&lt;=5000,1,IF(E79&lt;=15000,2,IF(E79&lt;=25000,3,IF(E79&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G79">
@@ -5552,7 +5801,7 @@
         <v>9</v>
       </c>
       <c r="J79" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K79" s="7">
@@ -5576,8 +5825,11 @@
       <c r="P79" s="14">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -5595,7 +5847,7 @@
         <v>1394</v>
       </c>
       <c r="F80">
-        <f>IF(E80&lt;=5000,1,IF(E80&lt;=15000,2,IF(E80&lt;=25000,3,IF(E80&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G80">
@@ -5605,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="J80">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K80" s="4">
@@ -5629,8 +5881,11 @@
       <c r="P80" s="14">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -5648,7 +5903,7 @@
         <v>3193</v>
       </c>
       <c r="F81">
-        <f>IF(E81&lt;=5000,1,IF(E81&lt;=15000,2,IF(E81&lt;=25000,3,IF(E81&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G81">
@@ -5661,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K81" s="4">
@@ -5685,8 +5940,11 @@
       <c r="P81" s="15">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>195</v>
       </c>
@@ -5703,7 +5961,7 @@
         <v>52789</v>
       </c>
       <c r="F82">
-        <f>IF(E82&lt;=5000,1,IF(E82&lt;=15000,2,IF(E82&lt;=25000,3,IF(E82&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G82">
@@ -5713,7 +5971,7 @@
         <v>9</v>
       </c>
       <c r="J82" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K82" s="7">
@@ -5737,8 +5995,11 @@
       <c r="P82" s="14">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -5755,7 +6016,7 @@
         <v>10249</v>
       </c>
       <c r="F83">
-        <f>IF(E83&lt;=5000,1,IF(E83&lt;=15000,2,IF(E83&lt;=25000,3,IF(E83&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G83">
@@ -5765,7 +6026,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K83" s="7">
@@ -5789,8 +6050,11 @@
       <c r="P83" s="14">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -5807,7 +6071,7 @@
         <v>35871</v>
       </c>
       <c r="F84">
-        <f>IF(E84&lt;=5000,1,IF(E84&lt;=15000,2,IF(E84&lt;=25000,3,IF(E84&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G84">
@@ -5817,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K84" s="7">
@@ -5841,8 +6105,11 @@
       <c r="P84" s="15">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -5859,7 +6126,7 @@
         <v>30117</v>
       </c>
       <c r="F85">
-        <f>IF(E85&lt;=5000,1,IF(E85&lt;=15000,2,IF(E85&lt;=25000,3,IF(E85&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G85">
@@ -5869,7 +6136,7 @@
         <v>9</v>
       </c>
       <c r="J85" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K85" s="7">
@@ -5893,8 +6160,11 @@
       <c r="P85" s="14">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -5911,7 +6181,7 @@
         <v>12714</v>
       </c>
       <c r="F86">
-        <f>IF(E86&lt;=5000,1,IF(E86&lt;=15000,2,IF(E86&lt;=25000,3,IF(E86&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G86">
@@ -5921,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="J86" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K86" s="7">
@@ -5945,8 +6215,11 @@
       <c r="P86" s="14">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -5963,7 +6236,7 @@
         <v>47000</v>
       </c>
       <c r="F87">
-        <f>IF(E87&lt;=5000,1,IF(E87&lt;=15000,2,IF(E87&lt;=25000,3,IF(E87&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G87">
@@ -5973,7 +6246,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K87" s="7">
@@ -5997,8 +6270,11 @@
       <c r="P87" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -6015,7 +6291,7 @@
         <v>50344</v>
       </c>
       <c r="F88">
-        <f>IF(E88&lt;=5000,1,IF(E88&lt;=15000,2,IF(E88&lt;=25000,3,IF(E88&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G88">
@@ -6025,7 +6301,7 @@
         <v>8</v>
       </c>
       <c r="J88" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K88" s="7">
@@ -6049,8 +6325,11 @@
       <c r="P88" s="14">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -6067,7 +6346,7 @@
         <v>46686</v>
       </c>
       <c r="F89">
-        <f>IF(E89&lt;=5000,1,IF(E89&lt;=15000,2,IF(E89&lt;=25000,3,IF(E89&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G89">
@@ -6077,7 +6356,7 @@
         <v>9</v>
       </c>
       <c r="J89" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K89" s="7">
@@ -6101,8 +6380,11 @@
       <c r="P89" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -6119,7 +6401,7 @@
         <v>20222</v>
       </c>
       <c r="F90">
-        <f>IF(E90&lt;=5000,1,IF(E90&lt;=15000,2,IF(E90&lt;=25000,3,IF(E90&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G90">
@@ -6129,7 +6411,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K90" s="7">
@@ -6153,8 +6435,11 @@
       <c r="P90" s="15">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -6171,14 +6456,14 @@
         <v>600</v>
       </c>
       <c r="F91">
-        <f>IF(E91&lt;=5000,1,IF(E91&lt;=15000,2,IF(E91&lt;=25000,3,IF(E91&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H91">
         <v>9</v>
       </c>
       <c r="J91" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>9</v>
       </c>
       <c r="K91" s="7">
@@ -6202,8 +6487,11 @@
       <c r="P91" s="14">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>37</v>
       </c>
@@ -6221,7 +6509,7 @@
         <v>38590</v>
       </c>
       <c r="F92">
-        <f>IF(E92&lt;=5000,1,IF(E92&lt;=15000,2,IF(E92&lt;=25000,3,IF(E92&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G92">
@@ -6231,7 +6519,7 @@
         <v>8</v>
       </c>
       <c r="J92">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K92" s="4">
@@ -6255,8 +6543,11 @@
       <c r="P92" s="14">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>74</v>
       </c>
@@ -6273,7 +6564,7 @@
         <v>28744</v>
       </c>
       <c r="F93">
-        <f>IF(E93&lt;=5000,1,IF(E93&lt;=15000,2,IF(E93&lt;=25000,3,IF(E93&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G93">
@@ -6283,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="J93" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K93" s="7">
@@ -6307,8 +6598,11 @@
       <c r="P93" s="15">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -6325,7 +6619,7 @@
         <v>32631</v>
       </c>
       <c r="F94">
-        <f>IF(E94&lt;=5000,1,IF(E94&lt;=15000,2,IF(E94&lt;=25000,3,IF(E94&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G94">
@@ -6335,7 +6629,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K94" s="7">
@@ -6359,8 +6653,11 @@
       <c r="P94" s="14">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>133</v>
       </c>
@@ -6377,7 +6674,7 @@
         <v>13926</v>
       </c>
       <c r="F95">
-        <f>IF(E95&lt;=5000,1,IF(E95&lt;=15000,2,IF(E95&lt;=25000,3,IF(E95&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G95">
@@ -6387,7 +6684,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K95" s="7">
@@ -6411,8 +6708,11 @@
       <c r="P95" s="14">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -6430,7 +6730,7 @@
         <v>55484</v>
       </c>
       <c r="F96">
-        <f>IF(E96&lt;=5000,1,IF(E96&lt;=15000,2,IF(E96&lt;=25000,3,IF(E96&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G96">
@@ -6440,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="J96">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K96" s="4">
@@ -6464,8 +6764,11 @@
       <c r="P96" s="15">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -6483,7 +6786,7 @@
         <v>23000</v>
       </c>
       <c r="F97">
-        <f>IF(E97&lt;=5000,1,IF(E97&lt;=15000,2,IF(E97&lt;=25000,3,IF(E97&lt;=35000,4,5))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G97">
@@ -6493,7 +6796,7 @@
         <v>7</v>
       </c>
       <c r="J97">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K97" s="4">
@@ -6517,8 +6820,11 @@
       <c r="P97" s="14">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -6536,7 +6842,7 @@
         <v>10851</v>
       </c>
       <c r="F98">
-        <f>IF(E98&lt;=5000,1,IF(E98&lt;=15000,2,IF(E98&lt;=25000,3,IF(E98&lt;=35000,4,5))))</f>
+        <f t="shared" ref="F98:F129" si="3">IF(E98&lt;=5000,1,IF(E98&lt;=15000,2,IF(E98&lt;=25000,3,IF(E98&lt;=35000,4,5))))</f>
         <v>2</v>
       </c>
       <c r="G98">
@@ -6546,7 +6852,7 @@
         <v>8</v>
       </c>
       <c r="J98">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K98" s="4">
@@ -6570,8 +6876,11 @@
       <c r="P98" s="14">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>139</v>
       </c>
@@ -6588,7 +6897,7 @@
         <v>37364</v>
       </c>
       <c r="F99">
-        <f>IF(E99&lt;=5000,1,IF(E99&lt;=15000,2,IF(E99&lt;=25000,3,IF(E99&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G99">
@@ -6598,7 +6907,7 @@
         <v>7</v>
       </c>
       <c r="J99" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K99" s="7">
@@ -6622,8 +6931,11 @@
       <c r="P99" s="15">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -6638,14 +6950,14 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <f>IF(E100&lt;=5000,1,IF(E100&lt;=15000,2,IF(E100&lt;=25000,3,IF(E100&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H100">
         <v>8</v>
       </c>
       <c r="J100" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K100" s="7">
@@ -6669,8 +6981,11 @@
       <c r="P100" s="14">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -6687,14 +7002,14 @@
         <v>13404</v>
       </c>
       <c r="F101">
-        <f>IF(E101&lt;=5000,1,IF(E101&lt;=15000,2,IF(E101&lt;=25000,3,IF(E101&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H101">
         <v>8</v>
       </c>
       <c r="J101" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>8</v>
       </c>
       <c r="K101" s="7">
@@ -6718,8 +7033,11 @@
       <c r="P101" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q101">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -6737,7 +7055,7 @@
         <v>25732</v>
       </c>
       <c r="F102">
-        <f>IF(E102&lt;=5000,1,IF(E102&lt;=15000,2,IF(E102&lt;=25000,3,IF(E102&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G102">
@@ -6747,7 +7065,7 @@
         <v>7</v>
       </c>
       <c r="J102">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>7</v>
       </c>
       <c r="K102" s="4">
@@ -6771,8 +7089,11 @@
       <c r="P102" s="15">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -6790,7 +7111,7 @@
         <v>13500</v>
       </c>
       <c r="F103">
-        <f>IF(E103&lt;=5000,1,IF(E103&lt;=15000,2,IF(E103&lt;=25000,3,IF(E103&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G103">
@@ -6800,7 +7121,7 @@
         <v>5</v>
       </c>
       <c r="J103">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K103" s="4">
@@ -6824,8 +7145,11 @@
       <c r="P103" s="14">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q103">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>142</v>
       </c>
@@ -6842,7 +7166,7 @@
         <v>42000</v>
       </c>
       <c r="F104">
-        <f>IF(E104&lt;=5000,1,IF(E104&lt;=15000,2,IF(E104&lt;=25000,3,IF(E104&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G104">
@@ -6852,7 +7176,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K104" s="7">
@@ -6876,8 +7200,11 @@
       <c r="P104" s="14">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>176</v>
       </c>
@@ -6892,7 +7219,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
-        <f>IF(E105&lt;=5000,1,IF(E105&lt;=15000,2,IF(E105&lt;=25000,3,IF(E105&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G105">
@@ -6902,7 +7229,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K105" s="7">
@@ -6926,8 +7253,11 @@
       <c r="P105" s="15">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -6944,7 +7274,7 @@
         <v>11664</v>
       </c>
       <c r="F106">
-        <f>IF(E106&lt;=5000,1,IF(E106&lt;=15000,2,IF(E106&lt;=25000,3,IF(E106&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G106">
@@ -6954,7 +7284,7 @@
         <v>6</v>
       </c>
       <c r="J106" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K106" s="7">
@@ -6978,8 +7308,11 @@
       <c r="P106" s="14">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -6996,7 +7329,7 @@
         <v>31900</v>
       </c>
       <c r="F107">
-        <f>IF(E107&lt;=5000,1,IF(E107&lt;=15000,2,IF(E107&lt;=25000,3,IF(E107&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G107">
@@ -7006,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K107" s="7">
@@ -7030,8 +7363,11 @@
       <c r="P107" s="14">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q107">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -7048,7 +7384,7 @@
         <v>53481</v>
       </c>
       <c r="F108">
-        <f>IF(E108&lt;=5000,1,IF(E108&lt;=15000,2,IF(E108&lt;=25000,3,IF(E108&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G108">
@@ -7058,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K108" s="7">
@@ -7082,8 +7418,11 @@
       <c r="P108" s="15">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -7100,7 +7439,7 @@
         <v>98738</v>
       </c>
       <c r="F109">
-        <f>IF(E109&lt;=5000,1,IF(E109&lt;=15000,2,IF(E109&lt;=25000,3,IF(E109&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G109">
@@ -7110,7 +7449,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K109" s="7">
@@ -7134,8 +7473,11 @@
       <c r="P109" s="14">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q109">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -7153,7 +7495,7 @@
         <v>112564</v>
       </c>
       <c r="F110">
-        <f>IF(E110&lt;=5000,1,IF(E110&lt;=15000,2,IF(E110&lt;=25000,3,IF(E110&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G110">
@@ -7163,7 +7505,7 @@
         <v>5</v>
       </c>
       <c r="J110">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K110" s="4">
@@ -7187,8 +7529,11 @@
       <c r="P110" s="14">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7205,7 +7550,7 @@
         <v>29175</v>
       </c>
       <c r="F111">
-        <f>IF(E111&lt;=5000,1,IF(E111&lt;=15000,2,IF(E111&lt;=25000,3,IF(E111&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G111">
@@ -7215,7 +7560,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>3</v>
       </c>
       <c r="K111" s="7">
@@ -7239,8 +7584,11 @@
       <c r="P111" s="15">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -7258,7 +7606,7 @@
         <v>5978</v>
       </c>
       <c r="F112">
-        <f>IF(E112&lt;=5000,1,IF(E112&lt;=15000,2,IF(E112&lt;=25000,3,IF(E112&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G112">
@@ -7268,7 +7616,7 @@
         <v>6</v>
       </c>
       <c r="J112">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K112" s="4">
@@ -7292,8 +7640,11 @@
       <c r="P112" s="14">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>196</v>
       </c>
@@ -7310,7 +7661,7 @@
         <v>28697</v>
       </c>
       <c r="F113">
-        <f>IF(E113&lt;=5000,1,IF(E113&lt;=15000,2,IF(E113&lt;=25000,3,IF(E113&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G113">
@@ -7320,7 +7671,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K113" s="7">
@@ -7344,8 +7695,11 @@
       <c r="P113" s="14">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>171</v>
       </c>
@@ -7362,14 +7716,14 @@
         <v>6180</v>
       </c>
       <c r="F114">
-        <f>IF(E114&lt;=5000,1,IF(E114&lt;=15000,2,IF(E114&lt;=25000,3,IF(E114&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H114">
         <v>6</v>
       </c>
       <c r="J114" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K114" s="7">
@@ -7393,8 +7747,11 @@
       <c r="P114" s="15">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7411,14 +7768,14 @@
         <v>32000</v>
       </c>
       <c r="F115">
-        <f>IF(E115&lt;=5000,1,IF(E115&lt;=15000,2,IF(E115&lt;=25000,3,IF(E115&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H115">
         <v>6</v>
       </c>
       <c r="J115" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>6</v>
       </c>
       <c r="K115" s="7">
@@ -7442,8 +7799,11 @@
       <c r="P115" s="14">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>46</v>
       </c>
@@ -7461,7 +7821,7 @@
         <v>42000</v>
       </c>
       <c r="F116">
-        <f>IF(E116&lt;=5000,1,IF(E116&lt;=15000,2,IF(E116&lt;=25000,3,IF(E116&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G116">
@@ -7471,7 +7831,7 @@
         <v>4</v>
       </c>
       <c r="J116">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K116" s="4">
@@ -7495,8 +7855,11 @@
       <c r="P116" s="14">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>101</v>
       </c>
@@ -7513,7 +7876,7 @@
         <v>19123</v>
       </c>
       <c r="F117">
-        <f>IF(E117&lt;=5000,1,IF(E117&lt;=15000,2,IF(E117&lt;=25000,3,IF(E117&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G117">
@@ -7523,7 +7886,7 @@
         <v>5</v>
       </c>
       <c r="J117" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K117" s="7">
@@ -7547,8 +7910,11 @@
       <c r="P117" s="15">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q117">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -7565,7 +7931,7 @@
         <v>30374</v>
       </c>
       <c r="F118">
-        <f>IF(E118&lt;=5000,1,IF(E118&lt;=15000,2,IF(E118&lt;=25000,3,IF(E118&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G118">
@@ -7575,7 +7941,7 @@
         <v>5</v>
       </c>
       <c r="J118" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K118" s="7">
@@ -7599,8 +7965,11 @@
       <c r="P118" s="14">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -7618,7 +7987,7 @@
         <v>40000</v>
       </c>
       <c r="F119">
-        <f>IF(E119&lt;=5000,1,IF(E119&lt;=15000,2,IF(E119&lt;=25000,3,IF(E119&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G119">
@@ -7631,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="J119">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K119" s="4">
@@ -7655,8 +8024,11 @@
       <c r="P119" s="14">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q119">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>201</v>
       </c>
@@ -7673,7 +8045,7 @@
         <v>16016</v>
       </c>
       <c r="F120">
-        <f>IF(E120&lt;=5000,1,IF(E120&lt;=15000,2,IF(E120&lt;=25000,3,IF(E120&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G120">
@@ -7683,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="J120" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>5</v>
       </c>
       <c r="K120" s="7">
@@ -7707,8 +8079,11 @@
       <c r="P120" s="15">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q120">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -7725,7 +8100,7 @@
         <v>36000</v>
       </c>
       <c r="F121">
-        <f>IF(E121&lt;=5000,1,IF(E121&lt;=15000,2,IF(E121&lt;=25000,3,IF(E121&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G121">
@@ -7735,7 +8110,7 @@
         <v>4</v>
       </c>
       <c r="J121" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K121" s="7">
@@ -7759,8 +8134,11 @@
       <c r="P121" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>148</v>
       </c>
@@ -7777,7 +8155,7 @@
         <v>38596</v>
       </c>
       <c r="F122">
-        <f>IF(E122&lt;=5000,1,IF(E122&lt;=15000,2,IF(E122&lt;=25000,3,IF(E122&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G122">
@@ -7787,7 +8165,7 @@
         <v>4</v>
       </c>
       <c r="J122" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K122" s="7">
@@ -7811,8 +8189,11 @@
       <c r="P122" s="14">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -7830,7 +8211,7 @@
         <v>9711</v>
       </c>
       <c r="F123">
-        <f>IF(E123&lt;=5000,1,IF(E123&lt;=15000,2,IF(E123&lt;=25000,3,IF(E123&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G123">
@@ -7840,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="J123">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>3</v>
       </c>
       <c r="K123" s="4">
@@ -7864,8 +8245,11 @@
       <c r="P123" s="15">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>158</v>
       </c>
@@ -7882,7 +8266,7 @@
         <v>39355</v>
       </c>
       <c r="F124">
-        <f>IF(E124&lt;=5000,1,IF(E124&lt;=15000,2,IF(E124&lt;=25000,3,IF(E124&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G124">
@@ -7892,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>3</v>
       </c>
       <c r="K124" s="7">
@@ -7916,8 +8300,11 @@
       <c r="P124" s="14">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q124">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -7934,14 +8321,14 @@
         <v>2240</v>
       </c>
       <c r="F125">
-        <f>IF(E125&lt;=5000,1,IF(E125&lt;=15000,2,IF(E125&lt;=25000,3,IF(E125&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H125">
         <v>4</v>
       </c>
       <c r="J125" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K125" s="7">
@@ -7965,8 +8352,11 @@
       <c r="P125" s="14">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>80</v>
       </c>
@@ -7983,14 +8373,14 @@
         <v>1797</v>
       </c>
       <c r="F126">
-        <f>IF(E126&lt;=5000,1,IF(E126&lt;=15000,2,IF(E126&lt;=25000,3,IF(E126&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H126">
         <v>4</v>
       </c>
       <c r="J126" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K126" s="7">
@@ -8014,8 +8404,11 @@
       <c r="P126" s="15">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q126">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>175</v>
       </c>
@@ -8030,14 +8423,14 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127">
-        <f>IF(E127&lt;=5000,1,IF(E127&lt;=15000,2,IF(E127&lt;=25000,3,IF(E127&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
       <c r="J127" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K127" s="7">
@@ -8061,8 +8454,11 @@
       <c r="P127" s="14">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>166</v>
       </c>
@@ -8077,14 +8473,14 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128">
-        <f>IF(E128&lt;=5000,1,IF(E128&lt;=15000,2,IF(E128&lt;=25000,3,IF(E128&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="J128" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K128" s="7">
@@ -8108,8 +8504,11 @@
       <c r="P128" s="14">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q128">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -8126,14 +8525,14 @@
         <v>30197</v>
       </c>
       <c r="F129">
-        <f>IF(E129&lt;=5000,1,IF(E129&lt;=15000,2,IF(E129&lt;=25000,3,IF(E129&lt;=35000,4,5))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H129" s="8">
         <v>4</v>
       </c>
       <c r="J129" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>4</v>
       </c>
       <c r="K129" s="7">
@@ -8157,8 +8556,11 @@
       <c r="P129" s="15">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -8176,7 +8578,7 @@
         <v>2000</v>
       </c>
       <c r="F130">
-        <f>IF(E130&lt;=5000,1,IF(E130&lt;=15000,2,IF(E130&lt;=25000,3,IF(E130&lt;=35000,4,5))))</f>
+        <f t="shared" ref="F130:F149" si="4">IF(E130&lt;=5000,1,IF(E130&lt;=15000,2,IF(E130&lt;=25000,3,IF(E130&lt;=35000,4,5))))</f>
         <v>1</v>
       </c>
       <c r="G130">
@@ -8186,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="J130">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K130" s="4">
@@ -8210,8 +8612,11 @@
       <c r="P130" s="14">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q130">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -8229,7 +8634,7 @@
         <v>2888</v>
       </c>
       <c r="F131">
-        <f>IF(E131&lt;=5000,1,IF(E131&lt;=15000,2,IF(E131&lt;=25000,3,IF(E131&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G131">
@@ -8239,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="J131">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K131" s="4">
@@ -8263,8 +8668,11 @@
       <c r="P131" s="14">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -8281,7 +8689,7 @@
         <v>30473</v>
       </c>
       <c r="F132">
-        <f>IF(E132&lt;=5000,1,IF(E132&lt;=15000,2,IF(E132&lt;=25000,3,IF(E132&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G132">
@@ -8291,7 +8699,7 @@
         <v>2</v>
       </c>
       <c r="J132" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K132" s="7">
@@ -8315,8 +8723,11 @@
       <c r="P132" s="15">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q132">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>107</v>
       </c>
@@ -8333,7 +8744,7 @@
         <v>25837</v>
       </c>
       <c r="F133">
-        <f>IF(E133&lt;=5000,1,IF(E133&lt;=15000,2,IF(E133&lt;=25000,3,IF(E133&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G133">
@@ -8343,7 +8754,7 @@
         <v>3</v>
       </c>
       <c r="J133" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>3</v>
       </c>
       <c r="K133" s="7">
@@ -8367,8 +8778,11 @@
       <c r="P133" s="14">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -8385,14 +8799,14 @@
         <v>959</v>
       </c>
       <c r="F134">
-        <f>IF(E134&lt;=5000,1,IF(E134&lt;=15000,2,IF(E134&lt;=25000,3,IF(E134&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="J134" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>3</v>
       </c>
       <c r="K134" s="7">
@@ -8416,8 +8830,11 @@
       <c r="P134" s="14">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q134">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -8434,7 +8851,7 @@
         <v>12000</v>
       </c>
       <c r="F135">
-        <f>IF(E135&lt;=5000,1,IF(E135&lt;=15000,2,IF(E135&lt;=25000,3,IF(E135&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G135">
@@ -8444,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K135" s="4">
@@ -8468,8 +8885,11 @@
       <c r="P135" s="15">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>204</v>
       </c>
@@ -8486,7 +8906,7 @@
         <v>32699</v>
       </c>
       <c r="F136">
-        <f>IF(E136&lt;=5000,1,IF(E136&lt;=15000,2,IF(E136&lt;=25000,3,IF(E136&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G136">
@@ -8496,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="J136" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K136" s="7">
@@ -8520,8 +8940,11 @@
       <c r="P136" s="14">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q136">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>103</v>
       </c>
@@ -8538,7 +8961,7 @@
         <v>33000</v>
       </c>
       <c r="F137">
-        <f>IF(E137&lt;=5000,1,IF(E137&lt;=15000,2,IF(E137&lt;=25000,3,IF(E137&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G137">
@@ -8548,7 +8971,7 @@
         <v>2</v>
       </c>
       <c r="J137" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K137" s="7">
@@ -8572,8 +8995,11 @@
       <c r="P137" s="14">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -8590,14 +9016,14 @@
         <v>3300</v>
       </c>
       <c r="F138">
-        <f>IF(E138&lt;=5000,1,IF(E138&lt;=15000,2,IF(E138&lt;=25000,3,IF(E138&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="J138" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K138" s="7">
@@ -8621,8 +9047,11 @@
       <c r="P138" s="15">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q138">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -8639,14 +9068,14 @@
         <v>2344</v>
       </c>
       <c r="F139">
-        <f>IF(E139&lt;=5000,1,IF(E139&lt;=15000,2,IF(E139&lt;=25000,3,IF(E139&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H139" s="8">
         <v>2</v>
       </c>
       <c r="J139" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K139" s="7">
@@ -8670,8 +9099,11 @@
       <c r="P139" s="14">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>181</v>
       </c>
@@ -8688,14 +9120,14 @@
         <v>9425</v>
       </c>
       <c r="F140">
-        <f>IF(E140&lt;=5000,1,IF(E140&lt;=15000,2,IF(E140&lt;=25000,3,IF(E140&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="J140" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K140" s="7">
@@ -8719,8 +9151,11 @@
       <c r="P140" s="14">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q140">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -8737,14 +9172,14 @@
         <v>35000</v>
       </c>
       <c r="F141">
-        <f>IF(E141&lt;=5000,1,IF(E141&lt;=15000,2,IF(E141&lt;=25000,3,IF(E141&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="J141" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>2</v>
       </c>
       <c r="K141" s="7">
@@ -8768,8 +9203,11 @@
       <c r="P141" s="15">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q141">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -8786,7 +9224,7 @@
         <v>27159</v>
       </c>
       <c r="F142">
-        <f>IF(E142&lt;=5000,1,IF(E142&lt;=15000,2,IF(E142&lt;=25000,3,IF(E142&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G142">
@@ -8796,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="J142" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K142" s="7">
@@ -8820,8 +9258,11 @@
       <c r="P142" s="14">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q142">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>116</v>
       </c>
@@ -8838,7 +9279,7 @@
         <v>2714</v>
       </c>
       <c r="F143">
-        <f>IF(E143&lt;=5000,1,IF(E143&lt;=15000,2,IF(E143&lt;=25000,3,IF(E143&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G143">
@@ -8848,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="J143" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K143" s="7">
@@ -8872,8 +9313,11 @@
       <c r="P143" s="14">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q143">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>98</v>
       </c>
@@ -8890,7 +9334,7 @@
         <v>20833</v>
       </c>
       <c r="F144">
-        <f>IF(E144&lt;=5000,1,IF(E144&lt;=15000,2,IF(E144&lt;=25000,3,IF(E144&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G144">
@@ -8900,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K144" s="7">
@@ -8924,8 +9368,11 @@
       <c r="P144" s="15">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q144">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -8942,7 +9389,7 @@
         <v>33300</v>
       </c>
       <c r="F145">
-        <f>IF(E145&lt;=5000,1,IF(E145&lt;=15000,2,IF(E145&lt;=25000,3,IF(E145&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G145">
@@ -8952,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="J145" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K145" s="7">
@@ -8976,8 +9423,11 @@
       <c r="P145" s="14">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q145">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -8995,7 +9445,7 @@
         <v>41000</v>
       </c>
       <c r="F146">
-        <f>IF(E146&lt;=5000,1,IF(E146&lt;=15000,2,IF(E146&lt;=25000,3,IF(E146&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G146">
@@ -9005,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="J146">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K146" s="4">
@@ -9029,8 +9479,11 @@
       <c r="P146" s="14">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q146">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>89</v>
       </c>
@@ -9048,7 +9501,7 @@
         <v>16610</v>
       </c>
       <c r="F147">
-        <f>IF(E147&lt;=5000,1,IF(E147&lt;=15000,2,IF(E147&lt;=25000,3,IF(E147&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G147">
@@ -9061,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K147" s="4">
@@ -9085,8 +9538,11 @@
       <c r="P147" s="15">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q147">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -9104,7 +9560,7 @@
         <v>22602</v>
       </c>
       <c r="F148">
-        <f>IF(E148&lt;=5000,1,IF(E148&lt;=15000,2,IF(E148&lt;=25000,3,IF(E148&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G148">
@@ -9114,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="J148">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K148" s="4">
@@ -9138,8 +9594,11 @@
       <c r="P148" s="14">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q148">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -9156,14 +9615,14 @@
         <v>8372</v>
       </c>
       <c r="F149">
-        <f>IF(E149&lt;=5000,1,IF(E149&lt;=15000,2,IF(E149&lt;=25000,3,IF(E149&lt;=35000,4,5))))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H149" s="8">
         <v>1</v>
       </c>
       <c r="J149" s="6">
-        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
         <v>1</v>
       </c>
       <c r="K149" s="7">
@@ -9186,6 +9645,2157 @@
       </c>
       <c r="P149" s="14">
         <v>148</v>
+      </c>
+      <c r="Q149">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150">
+        <f t="shared" ref="F150:F188" si="5">IF(E150&lt;=5000,1,IF(E150&lt;=15000,2,IF(E150&lt;=25000,3,IF(E150&lt;=35000,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>37</v>
+      </c>
+      <c r="J150" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>37</v>
+      </c>
+      <c r="K150" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>13.611539323343367</v>
+      </c>
+      <c r="L150" s="5">
+        <v>1</v>
+      </c>
+      <c r="M150" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>1.2262628790322893E-6</v>
+      </c>
+      <c r="N150" s="5">
+        <v>1</v>
+      </c>
+      <c r="O150" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>37</v>
+      </c>
+      <c r="P150" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" s="2">
+        <v>2888</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>301</v>
+      </c>
+      <c r="H151">
+        <v>19</v>
+      </c>
+      <c r="J151" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>19</v>
+      </c>
+      <c r="K151" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>6.9897093822574048</v>
+      </c>
+      <c r="L151" s="5">
+        <v>2</v>
+      </c>
+      <c r="M151" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>9.2131424303218933E-4</v>
+      </c>
+      <c r="N151" s="5">
+        <v>2</v>
+      </c>
+      <c r="O151" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>34.689567008532357</v>
+      </c>
+      <c r="P151" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" s="2">
+        <f>5205+4919</f>
+        <v>10124</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>92</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+      <c r="I152">
+        <v>25</v>
+      </c>
+      <c r="J152" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>33</v>
+      </c>
+      <c r="K152" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>4.4660643468082188</v>
+      </c>
+      <c r="L152" s="5">
+        <v>3</v>
+      </c>
+      <c r="M152" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>1.1492457287923533E-2</v>
+      </c>
+      <c r="N152" s="5">
+        <v>3</v>
+      </c>
+      <c r="O152" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>39.666522162177948</v>
+      </c>
+      <c r="P152" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>189</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" s="2">
+        <v>19613</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>151</v>
+      </c>
+      <c r="I153">
+        <v>51</v>
+      </c>
+      <c r="J153" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>51</v>
+      </c>
+      <c r="K153" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>2.539140486761061</v>
+      </c>
+      <c r="L153" s="5">
+        <v>4</v>
+      </c>
+      <c r="M153" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>7.893421564554004E-2</v>
+      </c>
+      <c r="N153" s="5">
+        <v>4</v>
+      </c>
+      <c r="O153" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>68.980622562183584</v>
+      </c>
+      <c r="P153" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>301</v>
+      </c>
+      <c r="H154">
+        <v>6</v>
+      </c>
+      <c r="J154" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>6</v>
+      </c>
+      <c r="K154" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>2.207276647028654</v>
+      </c>
+      <c r="L154" s="5">
+        <v>5</v>
+      </c>
+      <c r="M154" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.10999980927788269</v>
+      </c>
+      <c r="N154" s="5">
+        <v>5</v>
+      </c>
+      <c r="O154" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>10.954600107957585</v>
+      </c>
+      <c r="P154" s="20">
+        <v>13</v>
+      </c>
+      <c r="Q154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>79</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>4</v>
+      </c>
+      <c r="J155" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>4</v>
+      </c>
+      <c r="K155" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>1.4715177646857693</v>
+      </c>
+      <c r="L155" s="5">
+        <v>6</v>
+      </c>
+      <c r="M155" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.22957677710029925</v>
+      </c>
+      <c r="N155" s="5">
+        <v>6</v>
+      </c>
+      <c r="O155" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>4</v>
+      </c>
+      <c r="P155" s="20">
+        <v>25</v>
+      </c>
+      <c r="Q155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>79</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1394</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>501</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="J156" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>3</v>
+      </c>
+      <c r="K156" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>1.103638323514327</v>
+      </c>
+      <c r="L156" s="5">
+        <v>7</v>
+      </c>
+      <c r="M156" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.33166219151100518</v>
+      </c>
+      <c r="N156" s="5">
+        <v>7</v>
+      </c>
+      <c r="O156" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>8.1711714969174256</v>
+      </c>
+      <c r="P156" s="20">
+        <v>18</v>
+      </c>
+      <c r="Q156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>201</v>
+      </c>
+      <c r="I157">
+        <v>8</v>
+      </c>
+      <c r="J157" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>8</v>
+      </c>
+      <c r="K157" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>1.0826822658929016</v>
+      </c>
+      <c r="L157" s="5">
+        <v>8</v>
+      </c>
+      <c r="M157" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.33868586067616541</v>
+      </c>
+      <c r="N157" s="5">
+        <v>8</v>
+      </c>
+      <c r="O157" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>11.958490661408343</v>
+      </c>
+      <c r="P157" s="20">
+        <v>11</v>
+      </c>
+      <c r="Q157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" s="2">
+        <v>10851</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>19</v>
+      </c>
+      <c r="I158">
+        <v>8</v>
+      </c>
+      <c r="J158" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>8</v>
+      </c>
+      <c r="K158" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>1.0826822658929016</v>
+      </c>
+      <c r="L158" s="5">
+        <v>9</v>
+      </c>
+      <c r="M158" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.33868586067616541</v>
+      </c>
+      <c r="N158" s="5">
+        <v>9</v>
+      </c>
+      <c r="O158" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>8.3098498630279813</v>
+      </c>
+      <c r="P158" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>57</v>
+      </c>
+      <c r="E159" s="2">
+        <v>18676</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>501</v>
+      </c>
+      <c r="I159">
+        <v>17</v>
+      </c>
+      <c r="J159" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>17</v>
+      </c>
+      <c r="K159" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.84638016225368706</v>
+      </c>
+      <c r="L159" s="5">
+        <v>10</v>
+      </c>
+      <c r="M159" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.42896490829169481</v>
+      </c>
+      <c r="N159" s="5">
+        <v>10</v>
+      </c>
+      <c r="O159" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>46.303305149198749</v>
+      </c>
+      <c r="P159" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>57</v>
+      </c>
+      <c r="E160" s="2">
+        <v>12179</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>501</v>
+      </c>
+      <c r="I160">
+        <v>6</v>
+      </c>
+      <c r="J160" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>6</v>
+      </c>
+      <c r="K160" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.8120116994196761</v>
+      </c>
+      <c r="L160" s="5">
+        <v>11</v>
+      </c>
+      <c r="M160" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.44396404506171155</v>
+      </c>
+      <c r="N160" s="5">
+        <v>11</v>
+      </c>
+      <c r="O160" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>16.342342993834851</v>
+      </c>
+      <c r="P160" s="20">
+        <v>8</v>
+      </c>
+      <c r="Q160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161" s="2">
+        <v>5978</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>44</v>
+      </c>
+      <c r="I161">
+        <v>6</v>
+      </c>
+      <c r="J161" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>6</v>
+      </c>
+      <c r="K161" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.8120116994196761</v>
+      </c>
+      <c r="L161" s="5">
+        <v>12</v>
+      </c>
+      <c r="M161" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.44396404506171155</v>
+      </c>
+      <c r="N161" s="5">
+        <v>12</v>
+      </c>
+      <c r="O161" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>6.551928732169185</v>
+      </c>
+      <c r="P161" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>225</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" s="2">
+        <v>29711</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G162">
+        <v>151</v>
+      </c>
+      <c r="I162">
+        <v>24</v>
+      </c>
+      <c r="J162" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>24</v>
+      </c>
+      <c r="K162" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.43957533332962034</v>
+      </c>
+      <c r="L162" s="5">
+        <v>13</v>
+      </c>
+      <c r="M162" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.64430997996724504</v>
+      </c>
+      <c r="N162" s="5">
+        <v>13</v>
+      </c>
+      <c r="O162" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>32.461469441027575</v>
+      </c>
+      <c r="P162" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q162">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" t="s">
+        <v>189</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>57</v>
+      </c>
+      <c r="E163" s="2">
+        <v>9711</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>201</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="J163" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>3</v>
+      </c>
+      <c r="K163" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.40600584970983805</v>
+      </c>
+      <c r="L163" s="5">
+        <v>14</v>
+      </c>
+      <c r="M163" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.66630626971514506</v>
+      </c>
+      <c r="N163" s="5">
+        <v>14</v>
+      </c>
+      <c r="O163" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>4.4844339980281278</v>
+      </c>
+      <c r="P163" s="20">
+        <v>24</v>
+      </c>
+      <c r="Q163">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>184</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="2">
+        <v>14489</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>53</v>
+      </c>
+      <c r="H164">
+        <v>3</v>
+      </c>
+      <c r="J164" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>3</v>
+      </c>
+      <c r="K164" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.40600584970983805</v>
+      </c>
+      <c r="L164" s="5">
+        <v>15</v>
+      </c>
+      <c r="M164" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.66630626971514506</v>
+      </c>
+      <c r="N164" s="5">
+        <v>15</v>
+      </c>
+      <c r="O164" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>3.3354656295195926</v>
+      </c>
+      <c r="P164" s="20">
+        <v>26</v>
+      </c>
+      <c r="Q164">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>501</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="J165" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K165" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L165" s="5">
+        <v>16</v>
+      </c>
+      <c r="M165" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.69220062755534639</v>
+      </c>
+      <c r="N165" s="5">
+        <v>16</v>
+      </c>
+      <c r="O165" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+      <c r="P165" s="20">
+        <v>27</v>
+      </c>
+      <c r="Q165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" s="2">
+        <f>560+520+60+41+900</f>
+        <v>2081</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>501</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="J166" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K166" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L166" s="5">
+        <v>17</v>
+      </c>
+      <c r="M166" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.69220062755534639</v>
+      </c>
+      <c r="N166" s="5">
+        <v>17</v>
+      </c>
+      <c r="O166" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+      <c r="P166" s="19">
+        <v>28</v>
+      </c>
+      <c r="Q166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>501</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K167" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L167" s="5">
+        <v>18</v>
+      </c>
+      <c r="M167" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.69220062755534639</v>
+      </c>
+      <c r="N167" s="5">
+        <v>18</v>
+      </c>
+      <c r="O167" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+      <c r="P167" s="19">
+        <v>29</v>
+      </c>
+      <c r="Q167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>223</v>
+      </c>
+      <c r="B168" t="s">
+        <v>199</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>57</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>501</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K168" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L168" s="5">
+        <v>19</v>
+      </c>
+      <c r="M168" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.69220062755534639</v>
+      </c>
+      <c r="N168" s="5">
+        <v>19</v>
+      </c>
+      <c r="O168" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+      <c r="P168" s="19">
+        <v>30</v>
+      </c>
+      <c r="Q168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>25</v>
+      </c>
+      <c r="B169" t="s">
+        <v>192</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" s="2">
+        <v>11190</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>151</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="J169" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>2</v>
+      </c>
+      <c r="K169" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.2706705664732254</v>
+      </c>
+      <c r="L169" s="5">
+        <v>20</v>
+      </c>
+      <c r="M169" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.7628677692336272</v>
+      </c>
+      <c r="N169" s="5">
+        <v>20</v>
+      </c>
+      <c r="O169" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7051224534189644</v>
+      </c>
+      <c r="P169" s="19">
+        <v>33</v>
+      </c>
+      <c r="Q169">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" t="s">
+        <v>189</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>57</v>
+      </c>
+      <c r="E170" s="2">
+        <v>24270</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>93</v>
+      </c>
+      <c r="H170">
+        <v>5</v>
+      </c>
+      <c r="J170" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>5</v>
+      </c>
+      <c r="K170" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.2489353418393197</v>
+      </c>
+      <c r="L170" s="5">
+        <v>21</v>
+      </c>
+      <c r="M170" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.77963038122150408</v>
+      </c>
+      <c r="N170" s="5">
+        <v>21</v>
+      </c>
+      <c r="O170" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>6.0221113018881489</v>
+      </c>
+      <c r="P170" s="19">
+        <v>21</v>
+      </c>
+      <c r="Q170">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" t="s">
+        <v>202</v>
+      </c>
+      <c r="C171" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" t="s">
+        <v>57</v>
+      </c>
+      <c r="E171" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>501</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K171" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="L171" s="5">
+        <v>22</v>
+      </c>
+      <c r="M171" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.87342301849311665</v>
+      </c>
+      <c r="N171" s="5">
+        <v>22</v>
+      </c>
+      <c r="O171" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+      <c r="P171" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q171">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>57</v>
+      </c>
+      <c r="E172" s="2">
+        <v>13500</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>201</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K172" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="L172" s="5">
+        <v>23</v>
+      </c>
+      <c r="M172" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.87342301849311665</v>
+      </c>
+      <c r="N172" s="5">
+        <v>23</v>
+      </c>
+      <c r="O172" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>1.4948113326760428</v>
+      </c>
+      <c r="P172" s="19">
+        <v>35</v>
+      </c>
+      <c r="Q172">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="3">
+        <v>35582</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G173">
+        <v>41</v>
+      </c>
+      <c r="H173">
+        <v>14</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>17</v>
+      </c>
+      <c r="K173" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.11454509898445295</v>
+      </c>
+      <c r="L173" s="5">
+        <v>24</v>
+      </c>
+      <c r="M173" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.89177171951230227</v>
+      </c>
+      <c r="N173" s="5">
+        <v>24</v>
+      </c>
+      <c r="O173" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>18.452748767102332</v>
+      </c>
+      <c r="P173" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q173">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A174" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" s="16">
+        <v>25732</v>
+      </c>
+      <c r="F174" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G174" s="13">
+        <v>54</v>
+      </c>
+      <c r="H174" s="13">
+        <v>6</v>
+      </c>
+      <c r="I174" s="13"/>
+      <c r="J174" s="17">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>6</v>
+      </c>
+      <c r="K174" s="18">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.10989383333240509</v>
+      </c>
+      <c r="L174" s="5">
+        <v>25</v>
+      </c>
+      <c r="M174" s="18">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.89592924807020424</v>
+      </c>
+      <c r="N174" s="5">
+        <v>25</v>
+      </c>
+      <c r="O174" s="18">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>6.6842864723188056</v>
+      </c>
+      <c r="P174" s="19">
+        <v>19</v>
+      </c>
+      <c r="Q174">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>199</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>57</v>
+      </c>
+      <c r="E175" s="2">
+        <v>23000</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>87</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="J175" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>2</v>
+      </c>
+      <c r="K175" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>9.9574136735727889E-2</v>
+      </c>
+      <c r="L175" s="5">
+        <v>26</v>
+      </c>
+      <c r="M175" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.90522283711452844</v>
+      </c>
+      <c r="N175" s="5">
+        <v>26</v>
+      </c>
+      <c r="O175" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.3801111316407253</v>
+      </c>
+      <c r="P175" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q175">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>36</v>
+      </c>
+      <c r="B176" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>57</v>
+      </c>
+      <c r="E176" s="2">
+        <f>32206+3912</f>
+        <v>36118</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>201</v>
+      </c>
+      <c r="I176">
+        <v>8</v>
+      </c>
+      <c r="J176" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>8</v>
+      </c>
+      <c r="K176" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>5.3903575992683736E-2</v>
+      </c>
+      <c r="L176" s="5">
+        <v>27</v>
+      </c>
+      <c r="M176" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.94752346610672611</v>
+      </c>
+      <c r="N176" s="5">
+        <v>27</v>
+      </c>
+      <c r="O176" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>11.958490661408343</v>
+      </c>
+      <c r="P176" s="19">
+        <v>12</v>
+      </c>
+      <c r="Q176">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B177" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" t="s">
+        <v>57</v>
+      </c>
+      <c r="E177" s="2">
+        <v>38590</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G177">
+        <v>35</v>
+      </c>
+      <c r="H177">
+        <v>8</v>
+      </c>
+      <c r="J177" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>8</v>
+      </c>
+      <c r="K177" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>5.3903575992683736E-2</v>
+      </c>
+      <c r="L177" s="5">
+        <v>28</v>
+      </c>
+      <c r="M177" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.94752346610672611</v>
+      </c>
+      <c r="N177" s="5">
+        <v>28</v>
+      </c>
+      <c r="O177" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>8.5800654500337306</v>
+      </c>
+      <c r="P177" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q177">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>38</v>
+      </c>
+      <c r="B178" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" t="s">
+        <v>57</v>
+      </c>
+      <c r="E178" s="3">
+        <v>161270</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G178">
+        <v>17</v>
+      </c>
+      <c r="H178">
+        <v>8</v>
+      </c>
+      <c r="J178" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>8</v>
+      </c>
+      <c r="K178" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>5.3903575992683736E-2</v>
+      </c>
+      <c r="L178" s="5">
+        <v>29</v>
+      </c>
+      <c r="M178" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.94752346610672611</v>
+      </c>
+      <c r="N178" s="5">
+        <v>29</v>
+      </c>
+      <c r="O178" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>8.2766768538249433</v>
+      </c>
+      <c r="P178" s="19">
+        <v>17</v>
+      </c>
+      <c r="Q178">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>57</v>
+      </c>
+      <c r="E179" s="2">
+        <v>22829</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G179">
+        <v>501</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="J179" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K179" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="L179" s="5">
+        <v>30</v>
+      </c>
+      <c r="M179" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.95143199290045344</v>
+      </c>
+      <c r="N179" s="5">
+        <v>30</v>
+      </c>
+      <c r="O179" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>2.7237238323058088</v>
+      </c>
+      <c r="P179" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q179">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>40</v>
+      </c>
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>57</v>
+      </c>
+      <c r="E180" s="2">
+        <v>22602</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>7</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K180" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>4.9787068367863944E-2</v>
+      </c>
+      <c r="L180" s="5">
+        <v>31</v>
+      </c>
+      <c r="M180" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.95143199290045344</v>
+      </c>
+      <c r="N180" s="5">
+        <v>31</v>
+      </c>
+      <c r="O180" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>1.0140984589384923</v>
+      </c>
+      <c r="P180" s="19">
+        <v>38</v>
+      </c>
+      <c r="Q180">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" t="s">
+        <v>225</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" t="s">
+        <v>57</v>
+      </c>
+      <c r="E181" s="2">
+        <v>55484</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G181">
+        <v>93</v>
+      </c>
+      <c r="I181">
+        <v>7</v>
+      </c>
+      <c r="J181" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>7</v>
+      </c>
+      <c r="K181" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>4.7165628993598274E-2</v>
+      </c>
+      <c r="L181" s="5">
+        <v>32</v>
+      </c>
+      <c r="M181" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.95392938614090339</v>
+      </c>
+      <c r="N181" s="5">
+        <v>32</v>
+      </c>
+      <c r="O181" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>8.4309558226434085</v>
+      </c>
+      <c r="P181" s="19">
+        <v>15</v>
+      </c>
+      <c r="Q181">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>42</v>
+      </c>
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" t="s">
+        <v>43</v>
+      </c>
+      <c r="D182" t="s">
+        <v>57</v>
+      </c>
+      <c r="E182" s="2">
+        <v>50542</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G182">
+        <v>501</v>
+      </c>
+      <c r="H182">
+        <v>5</v>
+      </c>
+      <c r="J182" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>5</v>
+      </c>
+      <c r="K182" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>3.3689734995427337E-2</v>
+      </c>
+      <c r="L182" s="5">
+        <v>33</v>
+      </c>
+      <c r="M182" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.96687144447782469</v>
+      </c>
+      <c r="N182" s="5">
+        <v>33</v>
+      </c>
+      <c r="O182" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>13.618619161529043</v>
+      </c>
+      <c r="P182" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q182">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B183" t="s">
+        <v>79</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>57</v>
+      </c>
+      <c r="E183" s="2">
+        <v>57800</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G183">
+        <v>501</v>
+      </c>
+      <c r="I183">
+        <v>5</v>
+      </c>
+      <c r="J183" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>5</v>
+      </c>
+      <c r="K183" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>3.3689734995427337E-2</v>
+      </c>
+      <c r="L183" s="5">
+        <v>34</v>
+      </c>
+      <c r="M183" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.96687144447782469</v>
+      </c>
+      <c r="N183" s="5">
+        <v>34</v>
+      </c>
+      <c r="O183" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>13.618619161529043</v>
+      </c>
+      <c r="P183" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q183">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" t="s">
+        <v>57</v>
+      </c>
+      <c r="E184" s="2">
+        <v>40000</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G184">
+        <v>47</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>5</v>
+      </c>
+      <c r="K184" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>3.3689734995427337E-2</v>
+      </c>
+      <c r="L184" s="5">
+        <v>35</v>
+      </c>
+      <c r="M184" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.96687144447782469</v>
+      </c>
+      <c r="N184" s="5">
+        <v>35</v>
+      </c>
+      <c r="O184" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>5.4927987295858687</v>
+      </c>
+      <c r="P184" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q184">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" t="s">
+        <v>57</v>
+      </c>
+      <c r="E185" s="2">
+        <v>42000</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G185">
+        <v>201</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+      <c r="J185" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>4</v>
+      </c>
+      <c r="K185" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>2.6951787996341868E-2</v>
+      </c>
+      <c r="L185" s="5">
+        <v>36</v>
+      </c>
+      <c r="M185" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.97340817035133109</v>
+      </c>
+      <c r="N185" s="5">
+        <v>36</v>
+      </c>
+      <c r="O185" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>5.9792453307041713</v>
+      </c>
+      <c r="P185" s="19">
+        <v>22</v>
+      </c>
+      <c r="Q185">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" t="s">
+        <v>57</v>
+      </c>
+      <c r="E186" s="2">
+        <v>112564</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>151</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="J186" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K186" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>6.737946999085467E-3</v>
+      </c>
+      <c r="L186" s="5">
+        <v>37</v>
+      </c>
+      <c r="M186" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.99328470206784147</v>
+      </c>
+      <c r="N186" s="5">
+        <v>37</v>
+      </c>
+      <c r="O186" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>1.3525612267094822</v>
+      </c>
+      <c r="P186" s="19">
+        <v>36</v>
+      </c>
+      <c r="Q186">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" t="s">
+        <v>203</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>57</v>
+      </c>
+      <c r="E187" s="2">
+        <v>41000</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G187">
+        <v>101</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="J187" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>1</v>
+      </c>
+      <c r="K187" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>6.737946999085467E-3</v>
+      </c>
+      <c r="L187" s="5">
+        <v>38</v>
+      </c>
+      <c r="M187" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.99328470206784147</v>
+      </c>
+      <c r="N187" s="5">
+        <v>38</v>
+      </c>
+      <c r="O187" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>1.2238480081113581</v>
+      </c>
+      <c r="P187" s="19">
+        <v>37</v>
+      </c>
+      <c r="Q187">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>224</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" t="s">
+        <v>57</v>
+      </c>
+      <c r="E188" s="2">
+        <v>16610</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G188">
+        <v>22</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]]+Table3[[#This Row],[edXMOOCS]])</f>
+        <v>0</v>
+      </c>
+      <c r="K188" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="5">
+        <v>39</v>
+      </c>
+      <c r="M188" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>1</v>
+      </c>
+      <c r="N188" s="5">
+        <v>39</v>
+      </c>
+      <c r="O188" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>0</v>
+      </c>
+      <c r="P188" s="19">
+        <v>39</v>
+      </c>
+      <c r="Q188">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
